--- a/algo-level-tree.xlsx
+++ b/algo-level-tree.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shirishbahirat/Documents/code/algo/algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F129DD-9A39-694F-89B7-F10893857D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B7E55B-DF3C-8740-BF08-F7D73DFD8F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16120" activeTab="1" xr2:uid="{8CE69201-6E8E-A147-9CC9-30F99C0983B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Algorithm" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1717,7 +1717,7 @@
   <dimension ref="A1:W118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/algo-level-tree.xlsx
+++ b/algo-level-tree.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shirishbahirat/Documents/code/algo/algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B7E55B-DF3C-8740-BF08-F7D73DFD8F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAAB302-38AB-FD4F-A870-41BAB031E8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16120" activeTab="1" xr2:uid="{8CE69201-6E8E-A147-9CC9-30F99C0983B0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Brainstorming" sheetId="1" r:id="rId1"/>
     <sheet name="Algorithm" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="132">
   <si>
     <t>ServiceRoot</t>
   </si>
@@ -426,6 +426,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>to do: accum all decisions for each step</t>
   </si>
 </sst>
 </file>
@@ -441,15 +444,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -475,16 +490,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF95D06-C484-134D-9850-D587112DB884}">
   <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1714,21 +1753,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C737D6-2E65-5E4A-B6E3-C06E343BF6B4}">
-  <dimension ref="A1:W118"/>
+  <dimension ref="A1:V118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="13" max="13" width="10.83203125" style="2"/>
-    <col min="18" max="18" width="10.83203125" style="2"/>
-    <col min="20" max="20" width="10.83203125" style="2"/>
-    <col min="22" max="22" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="2"/>
+    <col min="15" max="15" width="10.83203125" style="2"/>
+    <col min="17" max="17" width="10.83203125" style="2"/>
+    <col min="19" max="19" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1739,7 +1778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1749,11 +1788,17 @@
       <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="E2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="S2" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1763,23 +1808,31 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="O3" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="P3" s="5"/>
+      <c r="Q3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="R3" s="5"/>
+      <c r="S3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="T3" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1789,21 +1842,21 @@
       <c r="C4" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" t="s">
         <v>81</v>
       </c>
-      <c r="I4" t="s">
+      <c r="F4" t="s">
         <v>110</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="V4" s="2">
+      <c r="S4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1813,12 +1866,12 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="J5" t="s">
+      <c r="D5" s="1"/>
+      <c r="G5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1828,585 +1881,585 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" t="s">
         <v>82</v>
       </c>
-      <c r="I6" t="s">
+      <c r="F6" t="s">
         <v>113</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="G8" s="1"/>
-      <c r="H8" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D8" s="1"/>
+      <c r="E8" t="s">
         <v>83</v>
       </c>
-      <c r="I8" t="s">
+      <c r="F8" t="s">
         <v>84</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="G11" s="1"/>
-      <c r="H11" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D11" s="1"/>
+      <c r="E11" t="s">
         <v>86</v>
       </c>
-      <c r="I11" t="s">
+      <c r="F11" t="s">
         <v>93</v>
       </c>
-      <c r="O11" t="s">
+      <c r="L11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="G12" s="4"/>
-      <c r="J12" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D12" s="3"/>
+      <c r="G12" t="s">
         <v>115</v>
       </c>
-      <c r="W12">
+      <c r="T12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="G14" s="4"/>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D14" s="3"/>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>111</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="Q14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="V14" s="2" t="s">
+      <c r="S14" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="J15" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="H16">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E16">
         <v>2</v>
       </c>
-      <c r="I16" t="s">
+      <c r="F16" t="s">
         <v>116</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H18">
+    <row r="18" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E18">
         <v>3</v>
       </c>
-      <c r="I18" t="s">
+      <c r="F18" t="s">
         <v>84</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="R19" s="2" t="s">
+    <row r="19" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="O19" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H20">
+    <row r="20" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="I20" t="s">
+      <c r="F20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J21" t="s">
+    <row r="21" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J22" t="s">
+    <row r="22" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
         <v>95</v>
       </c>
-      <c r="O22" t="s">
+      <c r="L22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J24" t="s">
+    <row r="24" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
         <v>97</v>
       </c>
-      <c r="V24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J25" t="s">
+      <c r="S24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
         <v>112</v>
       </c>
-      <c r="W25" t="s">
+      <c r="T25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
+    <row r="27" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
         <v>117</v>
       </c>
-      <c r="T27" s="2" t="s">
+      <c r="Q27" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="V27" s="2" t="s">
+      <c r="S27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="W27" t="s">
+      <c r="T27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J28" t="s">
+    <row r="28" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H30">
+    <row r="30" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E30">
         <v>2</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="T30" s="2" t="s">
+      <c r="Q30" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="R31" s="2" t="s">
+    <row r="31" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="O31" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H32">
+    <row r="32" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E32">
         <v>3</v>
       </c>
-      <c r="I32" t="s">
+      <c r="F32" t="s">
         <v>84</v>
       </c>
-      <c r="R32" s="2" t="s">
+      <c r="O32" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="R33" s="2" t="s">
+    <row r="33" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="O33" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H34">
+    <row r="34" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E34">
         <v>4</v>
       </c>
-      <c r="I34" t="s">
+      <c r="F34" t="s">
         <v>93</v>
       </c>
-      <c r="O34" t="s">
+      <c r="L34" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J35" t="s">
+    <row r="35" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J36" t="s">
+    <row r="36" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J38" t="s">
+    <row r="38" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
         <v>97</v>
       </c>
-      <c r="V38" s="2">
-        <v>1</v>
-      </c>
-      <c r="W38" t="s">
+      <c r="S38" s="2">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J39" t="s">
+    <row r="39" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41" t="s">
+    <row r="41" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
         <v>120</v>
       </c>
-      <c r="R41" s="2" t="s">
+      <c r="O41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T41" s="2" t="s">
+      <c r="Q41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V41" s="2">
-        <v>1</v>
-      </c>
-      <c r="W41" t="s">
+      <c r="S41" s="2">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J42" t="s">
+    <row r="42" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
         <v>114</v>
       </c>
-      <c r="R42" s="2" t="s">
+      <c r="O42" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J44" t="s">
+    <row r="44" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J45" t="s">
+    <row r="45" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H47">
+    <row r="47" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E47">
         <v>2</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="F47" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="T47" s="2" t="s">
+      <c r="Q47" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H49">
+    <row r="49" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E49">
         <v>3</v>
       </c>
-      <c r="I49" t="s">
+      <c r="F49" t="s">
         <v>84</v>
       </c>
-      <c r="R49" s="2" t="s">
+      <c r="O49" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="R50" s="2" t="s">
+    <row r="50" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="O50" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="R51" s="2" t="s">
+    <row r="51" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="O51" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H53">
+    <row r="53" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E53">
         <v>4</v>
       </c>
-      <c r="I53" t="s">
+      <c r="F53" t="s">
         <v>93</v>
       </c>
-      <c r="O53" t="s">
+      <c r="L53" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J54" t="s">
+    <row r="54" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J55" t="s">
+    <row r="55" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J57" t="s">
+    <row r="57" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J58" t="s">
+    <row r="58" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
         <v>112</v>
       </c>
-      <c r="V58" s="2" t="s">
+      <c r="S58" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="W58" t="s">
+      <c r="T58" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61" t="s">
+    <row r="61" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
       </c>
-      <c r="T61" s="2" t="s">
+      <c r="Q61" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J62" t="s">
+    <row r="62" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
         <v>114</v>
       </c>
-      <c r="V62" s="2">
+      <c r="S62" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J64" t="s">
+    <row r="64" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G64" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J65" t="s">
+    <row r="65" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H69">
+    <row r="69" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E69">
         <v>2</v>
       </c>
-      <c r="I69" s="4" t="s">
+      <c r="F69" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="R70" s="2" t="s">
+    <row r="70" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="O70" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H71">
+    <row r="71" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E71">
         <v>3</v>
       </c>
-      <c r="I71" t="s">
+      <c r="F71" t="s">
         <v>84</v>
       </c>
-      <c r="R71" s="2" t="s">
+      <c r="O71" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="R72" s="2" t="s">
+    <row r="72" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="O72" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="R73" s="2" t="s">
+    <row r="73" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="O73" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H75">
+    <row r="75" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E75">
         <v>4</v>
       </c>
-      <c r="I75" t="s">
+      <c r="F75" t="s">
         <v>93</v>
       </c>
-      <c r="O75" t="s">
+      <c r="L75" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J76" t="s">
+    <row r="76" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G76" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J77" t="s">
+    <row r="77" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G77" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J79" t="s">
+    <row r="79" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G79" t="s">
         <v>97</v>
       </c>
-      <c r="V79" s="2" t="s">
+      <c r="S79" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="W79" t="s">
+      <c r="T79" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="80" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J80" t="s">
+    <row r="80" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G80" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="83" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="I83" t="s">
+    <row r="83" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
         <v>123</v>
       </c>
-      <c r="R83" s="2" t="s">
+      <c r="O83" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J84" t="s">
+    <row r="84" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G84" t="s">
         <v>114</v>
       </c>
-      <c r="R84" s="2" t="s">
+      <c r="O84" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="W84" t="s">
+      <c r="T84" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="R85" s="2" t="s">
+    <row r="85" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="O85" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J86" t="s">
+    <row r="86" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G86" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="87" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J87" t="s">
+    <row r="87" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G87" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J89" t="s">
+    <row r="89" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G89" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="92" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H92">
+    <row r="92" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E92">
         <v>2</v>
       </c>
-      <c r="I92" s="4" t="s">
+      <c r="F92" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="R92" s="2" t="s">
+      <c r="O92" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="R93" s="2" t="s">
+    <row r="93" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="O93" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="W93" t="s">
+      <c r="T93" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="94" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J94" t="s">
+    <row r="94" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G94" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="95" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J95" t="s">
+    <row r="95" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G95" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="97" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="I97" t="s">
+    <row r="97" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="101" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H101">
-        <v>1</v>
-      </c>
-      <c r="I101" t="s">
+    <row r="101" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="102" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J102" t="s">
+    <row r="102" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G102" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="104" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J104" t="s">
+    <row r="104" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G104" t="s">
         <v>102</v>
       </c>
-      <c r="R104" s="2" t="s">
+      <c r="O104" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="W104">
+      <c r="T104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J105" t="s">
+    <row r="105" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G105" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J107" t="s">
+    <row r="107" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G107" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="110" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H110">
+    <row r="110" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E110">
         <v>2</v>
       </c>
-      <c r="I110" s="4" t="s">
+      <c r="F110" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="112" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="J112" t="s">
+    <row r="112" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G112" t="s">
         <v>126</v>
       </c>
-      <c r="R112" s="2" t="s">
+      <c r="O112" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="W112" t="s">
+      <c r="T112" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="J113" t="s">
+    <row r="113" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G113" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I115" t="s">
+    <row r="115" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F115" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I118" t="s">
+    <row r="118" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F118" t="s">
         <v>130</v>
       </c>
     </row>
